--- a/TestData/Schuljahre/SCHULJAHR_2016/Schuldaten/Fachbelegung/Kurse_13.xlsx
+++ b/TestData/Schuljahre/SCHULJAHR_2016/Schuldaten/Fachbelegung/Kurse_13.xlsx
@@ -27,17 +27,17 @@
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -91,7 +91,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
@@ -433,7 +433,7 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kursbelegung (Fach+Schüler -&gt; Lehrer)</t>
+          <t>Fachbelegung (Fach+Schüler -&gt; Lehrer oder "nicht gewählt")</t>
         </is>
       </c>
     </row>
@@ -491,61 +491,64 @@
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>de-e</t>
+          <t>De.e</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>en-e</t>
+          <t>En.e</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>ge-e</t>
+          <t>Ges.e</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>bi-e</t>
+          <t>Bio.e</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>ma-g</t>
+          <t>Ma.g</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>en-m</t>
+          <t>En.m</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>fr-m</t>
+          <t>Fr.m</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>bi-m</t>
+          <t>Bio.m</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>mu-m</t>
+          <t>Mu.m</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>ku-m</t>
+          <t>Ku.m</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>sp-m</t>
+          <t>Sp.m</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="126" r="6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
@@ -637,49 +640,29 @@
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L8" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="M8" s="7" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="O8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="n"/>
+      <c r="L8" s="7" t="n"/>
+      <c r="M8" s="7" t="n"/>
+      <c r="N8" s="7" t="n"/>
+      <c r="O8" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="22.4" r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -698,49 +681,29 @@
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="K9" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L9" s="7" t="n"/>
-      <c r="M9" s="7" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="N9" s="7" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="O9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
+      <c r="K9" s="7" t="n"/>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="n"/>
+      <c r="N9" s="7" t="n"/>
+      <c r="O9" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="22.4" r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -759,49 +722,29 @@
         </is>
       </c>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L10" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="M10" s="7" t="n"/>
-      <c r="N10" s="7" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="n"/>
+      <c r="L10" s="7" t="n"/>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="N10" s="7" t="n"/>
+      <c r="O10" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -820,49 +763,29 @@
         </is>
       </c>
       <c r="D11" s="4" t="n"/>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="n"/>
-      <c r="K11" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="inlineStr">
-        <is>
-          <t>KK</t>
-        </is>
-      </c>
-      <c r="M11" s="7" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="N11" s="7" t="n"/>
-      <c r="O11" s="7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="n"/>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="n"/>
+      <c r="L11" s="7" t="n"/>
+      <c r="M11" s="7" t="n"/>
+      <c r="N11" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="O11" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="22.4" r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -881,49 +804,29 @@
         </is>
       </c>
       <c r="D12" s="4" t="n"/>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>TU</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>KW</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>RL</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>BD</t>
-        </is>
-      </c>
-      <c r="K12" s="7" t="inlineStr">
-        <is>
-          <t>ESM</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
-      <c r="N12" s="7" t="inlineStr">
-        <is>
-          <t>GM</t>
-        </is>
-      </c>
-      <c r="O12" s="7" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="7" t="n"/>
+      <c r="K12" s="7" t="n"/>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="N12" s="7" t="n"/>
+      <c r="O12" s="7" t="n"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="0" pivotTables="1" scenarios="0" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
